--- a/annotations/annotations.xlsx
+++ b/annotations/annotations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xiao\Documents\Xiao_Code\Github\RWIDE\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B7A5557-E9C1-473D-A8BC-17B03E43D149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2D6924-AA7A-47F4-AD47-1E8D06F82E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11055" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RWIDE-α" sheetId="7" r:id="rId1"/>
@@ -1967,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD8112F-EFBA-4976-8635-6BCF95A9D60E}">
   <dimension ref="A1:L306"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13630,7 +13630,7 @@
   <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A251" sqref="A2:A251"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -32698,8 +32698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A388" workbookViewId="0">
-      <selection activeCell="H406" sqref="H406"/>
+    <sheetView topLeftCell="A388" workbookViewId="0">
+      <selection activeCell="N397" sqref="N397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -47967,8 +47967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC74BE69-B817-4D77-854E-BED346819083}">
   <dimension ref="A1:L251"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
